--- a/templates.xlsx
+++ b/templates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAZINJE\jasspr\xmlParser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zseliba\Documents\xmlParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="templates" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="452">
   <si>
     <t>templateName</t>
   </si>
@@ -1294,18 +1294,6 @@
     <t>Request the creation or the modification or decommission of a Object Storage instance</t>
   </si>
   <si>
-    <t>Request the creation or the modification or decommission of a BI middleware instance</t>
-  </si>
-  <si>
-    <t>Request the creation or the modification or decommission of a BODS</t>
-  </si>
-  <si>
-    <t>Request a creation or modification or decommission of an APM/RUM instance</t>
-  </si>
-  <si>
-    <t>Request the creation or the modification or decommission of a ColdFusion instance</t>
-  </si>
-  <si>
     <t>Request the creation or the modification or decommission of a Containers</t>
   </si>
   <si>
@@ -1331,6 +1319,66 @@
   </si>
   <si>
     <t>ECContainer</t>
+  </si>
+  <si>
+    <t>HousingContainer</t>
+  </si>
+  <si>
+    <t>Project_HousingContainer.xml</t>
+  </si>
+  <si>
+    <t>Housing Container</t>
+  </si>
+  <si>
+    <t>Housing Container for food</t>
+  </si>
+  <si>
+    <t>AMQ</t>
+  </si>
+  <si>
+    <t>Application Performance Monitoring and Real User Monitoring with Dynatrace</t>
+  </si>
+  <si>
+    <t>Amazon MQ Managed Message Broker Service</t>
+  </si>
+  <si>
+    <t>Amazon RDS for PostgreSQL</t>
+  </si>
+  <si>
+    <t>Amazon WildFly application instance authored by Jboss</t>
+  </si>
+  <si>
+    <t>Nexus Artefact Repository</t>
+  </si>
+  <si>
+    <t>BI middleware</t>
+  </si>
+  <si>
+    <t>BizTalk middleware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMDB CI Token search </t>
+  </si>
+  <si>
+    <t>ColdFusion web development suite</t>
+  </si>
+  <si>
+    <t>SAP BO Data Services (BODS) ETL tool for data integration, data quality, data profiling and data processing</t>
+  </si>
+  <si>
+    <t>BODS hosting</t>
+  </si>
+  <si>
+    <t>Business Objects application for reporting</t>
+  </si>
+  <si>
+    <t>BI hosting</t>
+  </si>
+  <si>
+    <t>SASHosting</t>
+  </si>
+  <si>
+    <t>Application and Filesystem monotiring</t>
   </si>
 </sst>
 </file>
@@ -1401,9 +1449,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J193" totalsRowShown="0">
   <autoFilter ref="A1:J193"/>
-  <sortState ref="A2:J192">
-    <sortCondition ref="F1:F192"/>
-  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" name="templateName"/>
     <tableColumn id="2" name="templateHelp"/>
@@ -1685,23 +1730,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J193" sqref="J193"/>
+    <sheetView tabSelected="1" topLeftCell="F91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.9140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" customWidth="1"/>
-    <col min="4" max="4" width="44.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.9140625" customWidth="1"/>
+    <col min="4" max="4" width="44.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.4140625" customWidth="1"/>
     <col min="7" max="7" width="44" customWidth="1"/>
-    <col min="8" max="8" width="96.8984375" customWidth="1"/>
-    <col min="10" max="10" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="96.9140625" customWidth="1"/>
+    <col min="10" max="10" width="23.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1763,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G1" t="s">
         <v>407</v>
@@ -1733,7 +1778,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1756,13 +1801,13 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1785,13 +1830,13 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1814,13 +1859,13 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1843,13 +1888,13 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1872,13 +1917,13 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1901,13 +1946,13 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="J7" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -1930,13 +1975,13 @@
         <v>213</v>
       </c>
       <c r="H8" t="s">
-        <v>214</v>
+        <v>441</v>
       </c>
       <c r="J8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1956,16 +2001,16 @@
         <v>378</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>436</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>438</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>298</v>
       </c>
@@ -1988,13 +2033,13 @@
         <v>299</v>
       </c>
       <c r="H10" t="s">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="J10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>350</v>
       </c>
@@ -2017,13 +2062,13 @@
         <v>351</v>
       </c>
       <c r="H11" t="s">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="J11" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2043,16 +2088,16 @@
         <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>449</v>
       </c>
       <c r="H12" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2069,19 +2114,19 @@
         <v>370</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>450</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2101,16 +2146,16 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>449</v>
       </c>
       <c r="H14" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2130,16 +2175,16 @@
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>449</v>
       </c>
       <c r="H15" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2162,13 +2207,13 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>443</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2188,16 +2233,16 @@
         <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>447</v>
       </c>
       <c r="H17" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="J17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2214,19 +2259,19 @@
         <v>370</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="J18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2246,16 +2291,16 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>447</v>
       </c>
       <c r="H19" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -2275,16 +2320,16 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>447</v>
       </c>
       <c r="H20" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="J20" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>381</v>
       </c>
@@ -2304,7 +2349,7 @@
         <v>382</v>
       </c>
       <c r="H21" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="I21" t="s">
         <v>376</v>
@@ -2313,7 +2358,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -2336,13 +2381,13 @@
         <v>177</v>
       </c>
       <c r="H22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2365,13 +2410,13 @@
         <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="J23" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2394,13 +2439,13 @@
         <v>44</v>
       </c>
       <c r="H24" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="J24" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -2423,13 +2468,13 @@
         <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="J25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -2452,13 +2497,13 @@
         <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="J26" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2481,13 +2526,13 @@
         <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J27" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2510,13 +2555,13 @@
         <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J28" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2539,13 +2584,13 @@
         <v>148</v>
       </c>
       <c r="H29" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J29" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>147</v>
       </c>
@@ -2568,13 +2613,13 @@
         <v>148</v>
       </c>
       <c r="H30" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J30" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -2597,13 +2642,13 @@
         <v>148</v>
       </c>
       <c r="H31" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J31" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>224</v>
       </c>
@@ -2626,13 +2671,13 @@
         <v>148</v>
       </c>
       <c r="H32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J32" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>354</v>
       </c>
@@ -2655,13 +2700,13 @@
         <v>148</v>
       </c>
       <c r="H33" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J33" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>358</v>
       </c>
@@ -2684,13 +2729,13 @@
         <v>148</v>
       </c>
       <c r="H34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J34" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>401</v>
       </c>
@@ -2719,7 +2764,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2748,7 +2793,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>140</v>
       </c>
@@ -2777,7 +2822,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -2806,7 +2851,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -2835,7 +2880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -2864,7 +2909,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2893,7 +2938,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>228</v>
       </c>
@@ -2922,7 +2967,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -2951,7 +2996,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2980,7 +3025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -3009,7 +3054,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -3023,7 +3068,7 @@
         <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F46" t="s">
         <v>85</v>
@@ -3038,7 +3083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>231</v>
       </c>
@@ -3067,7 +3112,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>155</v>
       </c>
@@ -3096,7 +3141,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3125,7 +3170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -3154,7 +3199,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -3183,7 +3228,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -3212,7 +3257,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>235</v>
       </c>
@@ -3241,7 +3286,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3270,7 +3315,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>239</v>
       </c>
@@ -3299,7 +3344,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>273</v>
       </c>
@@ -3322,13 +3367,13 @@
         <v>148</v>
       </c>
       <c r="H56" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J56" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>387</v>
       </c>
@@ -3348,7 +3393,7 @@
         <v>387</v>
       </c>
       <c r="H57" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="I57" t="s">
         <v>376</v>
@@ -3357,7 +3402,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -3386,7 +3431,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -3415,7 +3460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>243</v>
       </c>
@@ -3444,7 +3489,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>281</v>
       </c>
@@ -3473,7 +3518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -3502,7 +3547,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>247</v>
       </c>
@@ -3531,7 +3576,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>284</v>
       </c>
@@ -3560,7 +3605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -3589,7 +3634,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>286</v>
       </c>
@@ -3618,7 +3663,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -3647,7 +3692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -3676,7 +3721,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>251</v>
       </c>
@@ -3705,7 +3750,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>255</v>
       </c>
@@ -3734,7 +3779,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>290</v>
       </c>
@@ -3763,7 +3808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>251</v>
       </c>
@@ -3792,7 +3837,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>402</v>
       </c>
@@ -3821,7 +3866,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -3850,7 +3895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -3879,7 +3924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -3893,7 +3938,7 @@
         <v>135</v>
       </c>
       <c r="E76" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F76" t="s">
         <v>294</v>
@@ -3908,7 +3953,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>259</v>
       </c>
@@ -3937,7 +3982,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>277</v>
       </c>
@@ -3966,7 +4011,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>294</v>
       </c>
@@ -3995,7 +4040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>332</v>
       </c>
@@ -4024,7 +4069,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>302</v>
       </c>
@@ -4044,7 +4089,7 @@
         <v>389</v>
       </c>
       <c r="G81" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="H81" t="s">
         <v>410</v>
@@ -4053,7 +4098,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>306</v>
       </c>
@@ -4073,7 +4118,7 @@
         <v>389</v>
       </c>
       <c r="G82" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="H82" t="s">
         <v>410</v>
@@ -4082,7 +4127,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>302</v>
       </c>
@@ -4102,7 +4147,7 @@
         <v>389</v>
       </c>
       <c r="G83" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="H83" t="s">
         <v>410</v>
@@ -4111,7 +4156,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>302</v>
       </c>
@@ -4131,7 +4176,7 @@
         <v>389</v>
       </c>
       <c r="G84" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="H84" t="s">
         <v>410</v>
@@ -4140,7 +4185,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>302</v>
       </c>
@@ -4160,7 +4205,7 @@
         <v>389</v>
       </c>
       <c r="G85" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="H85" t="s">
         <v>410</v>
@@ -4169,7 +4214,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>312</v>
       </c>
@@ -4189,7 +4234,7 @@
         <v>389</v>
       </c>
       <c r="G86" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="H86" t="s">
         <v>410</v>
@@ -4198,7 +4243,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>302</v>
       </c>
@@ -4218,7 +4263,7 @@
         <v>389</v>
       </c>
       <c r="G87" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="H87" t="s">
         <v>410</v>
@@ -4227,7 +4272,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>196</v>
       </c>
@@ -4256,7 +4301,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>316</v>
       </c>
@@ -4285,7 +4330,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>316</v>
       </c>
@@ -4314,7 +4359,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>316</v>
       </c>
@@ -4343,7 +4388,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>316</v>
       </c>
@@ -4372,7 +4417,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>323</v>
       </c>
@@ -4401,7 +4446,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>316</v>
       </c>
@@ -4430,7 +4475,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>316</v>
       </c>
@@ -4459,7 +4504,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -4488,7 +4533,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -4517,7 +4562,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -4546,7 +4591,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>340</v>
       </c>
@@ -4575,7 +4620,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>340</v>
       </c>
@@ -4604,7 +4649,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>136</v>
       </c>
@@ -4633,7 +4678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>263</v>
       </c>
@@ -4662,7 +4707,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>265</v>
       </c>
@@ -4691,7 +4736,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>336</v>
       </c>
@@ -4720,7 +4765,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -4749,7 +4794,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>345</v>
       </c>
@@ -4778,7 +4823,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>400</v>
       </c>
@@ -4807,7 +4852,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>208</v>
       </c>
@@ -4836,7 +4881,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>269</v>
       </c>
@@ -4865,7 +4910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>208</v>
       </c>
@@ -4894,7 +4939,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>208</v>
       </c>
@@ -4923,7 +4968,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>208</v>
       </c>
@@ -4952,7 +4997,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>208</v>
       </c>
@@ -4981,7 +5026,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>208</v>
       </c>
@@ -5010,7 +5055,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>208</v>
       </c>
@@ -5039,7 +5084,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -5068,7 +5113,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -5097,9 +5142,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B118" t="s">
         <v>106</v>
@@ -5126,257 +5171,281 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>432</v>
+      </c>
+      <c r="B191" t="s">
+        <v>432</v>
+      </c>
+      <c r="C191" t="s">
+        <v>432</v>
+      </c>
+      <c r="D191" t="s">
+        <v>433</v>
+      </c>
+      <c r="E191" t="s">
+        <v>147</v>
+      </c>
+      <c r="F191" t="s">
+        <v>432</v>
+      </c>
+      <c r="G191" t="s">
+        <v>434</v>
+      </c>
+      <c r="H191" t="s">
+        <v>435</v>
+      </c>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B192" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D192" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E192" t="s">
         <v>147</v>
       </c>
       <c r="F192" t="s">
+        <v>427</v>
+      </c>
+      <c r="G192" t="s">
+        <v>428</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J192" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G192" t="s">
-        <v>432</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B193" t="s">
         <v>252</v>
